--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T17:57:09+00:00</t>
+    <t>2024-08-18T18:01:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:01:46+00:00</t>
+    <t>2024-08-18T18:15:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:05:30+00:00</t>
+    <t>2024-08-18T19:09:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:09:24+00:00</t>
+    <t>2024-08-21T16:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:05:17+00:00</t>
+    <t>2024-09-25T13:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1321,7 +1321,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T13:28:49+00:00</t>
+    <t>2024-10-17T13:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:22:30+00:00</t>
+    <t>2024-10-17T13:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:23:47+00:00</t>
+    <t>2024-10-17T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:40:48+00:00</t>
+    <t>2024-10-17T13:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:43:39+00:00</t>
+    <t>2024-10-17T13:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:46:08+00:00</t>
+    <t>2024-10-30T19:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:02:22+00:00</t>
+    <t>2024-10-30T19:04:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:04:31+00:00</t>
+    <t>2024-11-07T20:58:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T20:58:48+00:00</t>
+    <t>2024-11-07T21:00:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivTest.xlsx
+++ b/StructureDefinition-HivTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:00:54+00:00</t>
+    <t>2024-11-07T21:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
